--- a/doc/实验数据.xlsx
+++ b/doc/实验数据.xlsx
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>mogb-dt-500-0.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOGB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,6 +75,10 @@
   </si>
   <si>
     <t>sklearn-ada-dt-500-0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOGB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12404,11 +12404,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="253161496"/>
-        <c:axId val="253544936"/>
+        <c:axId val="256932040"/>
+        <c:axId val="257821360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253161496"/>
+        <c:axId val="256932040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12514,7 +12514,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253544936"/>
+        <c:crossAx val="257821360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -12524,7 +12524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253544936"/>
+        <c:axId val="257821360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.58000000000000007"/>
@@ -12640,7 +12640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253161496"/>
+        <c:crossAx val="256932040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20379,11 +20379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="417208936"/>
-        <c:axId val="253349320"/>
+        <c:axId val="256891744"/>
+        <c:axId val="256893152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="417208936"/>
+        <c:axId val="256891744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20489,7 +20489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253349320"/>
+        <c:crossAx val="256893152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20499,7 +20499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253349320"/>
+        <c:axId val="256893152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.57000000000000006"/>
@@ -20615,7 +20615,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417208936"/>
+        <c:crossAx val="256891744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20935,11 +20935,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="253619216"/>
-        <c:axId val="253560928"/>
+        <c:axId val="257560840"/>
+        <c:axId val="257561864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253619216"/>
+        <c:axId val="257560840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20982,7 +20982,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253560928"/>
+        <c:crossAx val="257561864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20990,7 +20990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253560928"/>
+        <c:axId val="257561864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.47000000000000003"/>
@@ -21105,7 +21105,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253619216"/>
+        <c:crossAx val="257560840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21246,11 +21246,11 @@
         </c:dLbls>
         <c:gapWidth val="70"/>
         <c:overlap val="-4"/>
-        <c:axId val="252178080"/>
-        <c:axId val="252179256"/>
+        <c:axId val="257771896"/>
+        <c:axId val="255813296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="252178080"/>
+        <c:axId val="257771896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21293,7 +21293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252179256"/>
+        <c:crossAx val="255813296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21301,7 +21301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252179256"/>
+        <c:axId val="255813296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21411,7 +21411,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252178080"/>
+        <c:crossAx val="257771896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27597,11 +27597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="252180040"/>
-        <c:axId val="252180432"/>
+        <c:axId val="257875888"/>
+        <c:axId val="257876280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252180040"/>
+        <c:axId val="257875888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27703,7 +27703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252180432"/>
+        <c:crossAx val="257876280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27712,7 +27712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252180432"/>
+        <c:axId val="257876280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.37000000000000005"/>
@@ -27827,7 +27827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252180040"/>
+        <c:crossAx val="257875888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -28061,11 +28061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="254004784"/>
-        <c:axId val="254005176"/>
+        <c:axId val="257879024"/>
+        <c:axId val="257878240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254004784"/>
+        <c:axId val="257879024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28108,7 +28108,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254005176"/>
+        <c:crossAx val="257878240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28116,7 +28116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254005176"/>
+        <c:axId val="257878240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28167,7 +28167,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254004784"/>
+        <c:crossAx val="257879024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28372,11 +28372,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="254005960"/>
-        <c:axId val="254006352"/>
+        <c:axId val="257879808"/>
+        <c:axId val="257880200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254005960"/>
+        <c:axId val="257879808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28473,7 +28473,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254006352"/>
+        <c:crossAx val="257880200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28481,7 +28481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254006352"/>
+        <c:axId val="257880200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28587,7 +28587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254005960"/>
+        <c:crossAx val="257879808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28792,11 +28792,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="254007136"/>
-        <c:axId val="254007528"/>
+        <c:axId val="257880984"/>
+        <c:axId val="257881376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254007136"/>
+        <c:axId val="257880984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28894,7 +28894,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254007528"/>
+        <c:crossAx val="257881376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28902,7 +28902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254007528"/>
+        <c:axId val="257881376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29008,7 +29008,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254007136"/>
+        <c:crossAx val="257880984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34016,7 +34016,7 @@
   <dimension ref="A1:W510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B497" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="H510" sqref="H510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34043,25 +34043,25 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
-      </c>
-      <c r="W1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
@@ -69637,7 +69637,7 @@
     </row>
     <row r="506" spans="1:23" x14ac:dyDescent="0.15">
       <c r="G506" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H506" s="1">
         <v>0.55901900000000004</v>
@@ -69645,7 +69645,7 @@
     </row>
     <row r="507" spans="1:23" x14ac:dyDescent="0.15">
       <c r="G507" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H507" s="1">
         <v>0.52135632601199999</v>
@@ -69653,7 +69653,7 @@
     </row>
     <row r="508" spans="1:23" x14ac:dyDescent="0.15">
       <c r="G508" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H508" s="1">
         <v>0.54835607830999999</v>
@@ -69661,7 +69661,7 @@
     </row>
     <row r="509" spans="1:23" x14ac:dyDescent="0.15">
       <c r="G509" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H509" s="1">
         <v>0.54014799999999996</v>
@@ -69669,7 +69669,7 @@
     </row>
     <row r="510" spans="1:23" x14ac:dyDescent="0.15">
       <c r="G510" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H510" s="1">
         <v>0.50672989044000005</v>
@@ -70424,7 +70424,7 @@
         <v>12750</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -70459,7 +70459,7 @@
         <v>16169</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">

--- a/doc/实验数据.xlsx
+++ b/doc/实验数据.xlsx
@@ -78,7 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOGB</t>
+    <t>MTGBM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12404,11 +12404,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="256932040"/>
-        <c:axId val="257821360"/>
+        <c:axId val="252272024"/>
+        <c:axId val="252592192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256932040"/>
+        <c:axId val="252272024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12514,7 +12514,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257821360"/>
+        <c:crossAx val="252592192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -12524,7 +12524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257821360"/>
+        <c:axId val="252592192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.58000000000000007"/>
@@ -12640,7 +12640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256932040"/>
+        <c:crossAx val="252272024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20379,11 +20379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="256891744"/>
-        <c:axId val="256893152"/>
+        <c:axId val="252401672"/>
+        <c:axId val="252672472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256891744"/>
+        <c:axId val="252401672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20489,7 +20489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256893152"/>
+        <c:crossAx val="252672472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20499,7 +20499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256893152"/>
+        <c:axId val="252672472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.57000000000000006"/>
@@ -20615,7 +20615,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256891744"/>
+        <c:crossAx val="252401672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20739,7 +20739,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>MOGB</c:v>
+                  <c:v>MTGBM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>AdaBoost(sklearn)</c:v>
@@ -20791,7 +20791,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>MOGB</c:v>
+                  <c:v>MTGBM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>AdaBoost(sklearn)</c:v>
@@ -20843,7 +20843,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>MOGB</c:v>
+                  <c:v>MTGBM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>AdaBoost(sklearn)</c:v>
@@ -20895,7 +20895,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>MOGB</c:v>
+                  <c:v>MTGBM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>AdaBoost(sklearn)</c:v>
@@ -20935,11 +20935,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257560840"/>
-        <c:axId val="257561864"/>
+        <c:axId val="252440672"/>
+        <c:axId val="252449248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257560840"/>
+        <c:axId val="252440672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20982,7 +20982,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257561864"/>
+        <c:crossAx val="252449248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20990,7 +20990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257561864"/>
+        <c:axId val="252449248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.47000000000000003"/>
@@ -21105,7 +21105,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257560840"/>
+        <c:crossAx val="252440672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21194,7 +21194,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>MOGB</c:v>
+                  <c:v>MTGBM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>AdaBoost(sklearn)</c:v>
@@ -21246,11 +21246,11 @@
         </c:dLbls>
         <c:gapWidth val="70"/>
         <c:overlap val="-4"/>
-        <c:axId val="257771896"/>
-        <c:axId val="255813296"/>
+        <c:axId val="252466360"/>
+        <c:axId val="251127912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257771896"/>
+        <c:axId val="252466360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21293,7 +21293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255813296"/>
+        <c:crossAx val="251127912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21301,7 +21301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255813296"/>
+        <c:axId val="251127912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21411,7 +21411,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257771896"/>
+        <c:crossAx val="252466360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21484,7 +21484,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MOGB</c:v>
+            <c:v>MTGBM</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -24528,7 +24528,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Gradient Boosting(xgboost)</c:v>
+            <c:v>Gradient Boosting Machine(xgboost)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -26060,7 +26060,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Gradient Boosting(sklearn)</c:v>
+            <c:v>Gradient Boosting Machine(sklearn)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -27597,11 +27597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="257875888"/>
-        <c:axId val="257876280"/>
+        <c:axId val="252505480"/>
+        <c:axId val="252505872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="257875888"/>
+        <c:axId val="252505480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27703,7 +27703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257876280"/>
+        <c:crossAx val="252505872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27712,7 +27712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257876280"/>
+        <c:axId val="252505872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.37000000000000005"/>
@@ -27757,12 +27757,8 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Score</a:t>
+                  <a:t>Precision</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -27827,7 +27823,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257875888"/>
+        <c:crossAx val="252505480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -28061,11 +28057,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257879024"/>
-        <c:axId val="257878240"/>
+        <c:axId val="252506656"/>
+        <c:axId val="252507048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257879024"/>
+        <c:axId val="252506656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28108,7 +28104,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257878240"/>
+        <c:crossAx val="252507048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28116,7 +28112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257878240"/>
+        <c:axId val="252507048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28167,7 +28163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257879024"/>
+        <c:crossAx val="252506656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28372,11 +28368,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257879808"/>
-        <c:axId val="257880200"/>
+        <c:axId val="253138968"/>
+        <c:axId val="253139360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257879808"/>
+        <c:axId val="253138968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28473,7 +28469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257880200"/>
+        <c:crossAx val="253139360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28481,7 +28477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257880200"/>
+        <c:axId val="253139360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28587,7 +28583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257879808"/>
+        <c:crossAx val="253138968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28792,11 +28788,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257880984"/>
-        <c:axId val="257881376"/>
+        <c:axId val="253140144"/>
+        <c:axId val="253140536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257880984"/>
+        <c:axId val="253140144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28894,7 +28890,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257881376"/>
+        <c:crossAx val="253140536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28902,7 +28898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257881376"/>
+        <c:axId val="253140536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29008,7 +29004,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257880984"/>
+        <c:crossAx val="253140144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33596,13 +33592,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>479563</xdr:colOff>
+      <xdr:colOff>479564</xdr:colOff>
       <xdr:row>483</xdr:row>
       <xdr:rowOff>26919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323022</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579783</xdr:colOff>
       <xdr:row>499</xdr:row>
       <xdr:rowOff>26918</xdr:rowOff>
     </xdr:to>
@@ -34015,8 +34011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B497" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H510" sqref="H510"/>
+    <sheetView tabSelected="1" topLeftCell="D476" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
